--- a/logbook/Planeamento LAMEC.xlsx
+++ b/logbook/Planeamento LAMEC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T S\Documents\ISEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T S\Documents\ISEP-Git\LAMEC\pedometerpda-lamec\logbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Tarefas</t>
   </si>
@@ -44,10 +44,109 @@
     <t>Formulação de uma solução</t>
   </si>
   <si>
-    <t>Implementação de um protótipo funcional</t>
-  </si>
-  <si>
     <t>Planeamento da arquitectura do protótipo</t>
+  </si>
+  <si>
+    <t>Implementação da comunicação RS232</t>
+  </si>
+  <si>
+    <t>Implementação da comunicação I2C</t>
+  </si>
+  <si>
+    <t>Leitura e analise dos dados obtidos do Acelerometro</t>
+  </si>
+  <si>
+    <t>Definição dos critérios de "1 passo"</t>
+  </si>
+  <si>
+    <t>Função para estimar o número de passos dados por periodo de tempos</t>
+  </si>
+  <si>
+    <t>Comunicação para o dos reultados para o utilizador</t>
+  </si>
+  <si>
+    <t>Leitura de valores de um RTC</t>
+  </si>
+  <si>
+    <t>Divisão do dia em periodos</t>
+  </si>
+  <si>
+    <t>EXTRAS</t>
+  </si>
+  <si>
+    <t>Realização de um relatório da fase de implementação do sistema</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>2º</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>7º</t>
+  </si>
+  <si>
+    <t>8º</t>
+  </si>
+  <si>
+    <t>9º</t>
+  </si>
+  <si>
+    <t>10º</t>
+  </si>
+  <si>
+    <t>11º</t>
+  </si>
+  <si>
+    <t>12º</t>
+  </si>
+  <si>
+    <t>13º</t>
+  </si>
+  <si>
+    <t>14º</t>
+  </si>
+  <si>
+    <t>Ferias de Natal</t>
+  </si>
+  <si>
+    <t>15º</t>
+  </si>
+  <si>
+    <t>16º</t>
+  </si>
+  <si>
+    <t>Set.</t>
+  </si>
+  <si>
+    <t>Out.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Dez.</t>
+  </si>
+  <si>
+    <t>Jan.</t>
+  </si>
+  <si>
+    <t>Realização do relatório final, apresentação e discusão do trabalho</t>
+  </si>
+  <si>
+    <t>Avaliação</t>
   </si>
 </sst>
 </file>
@@ -63,15 +162,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -79,12 +190,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,55 +802,1105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:D13"/>
+  <dimension ref="D3:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="21" width="3.85546875" customWidth="1"/>
+    <col min="23" max="24" width="3.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="3" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="26"/>
+    </row>
+    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D7" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="12"/>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="12"/>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="275">
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="D4:G6"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="D21:G22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="D25:G26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="D15:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>